--- a/Talleres/Taller 2/docs/tiempos_ejecucion.xlsx
+++ b/Talleres/Taller 2/docs/tiempos_ejecucion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23322"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\Analisis-Algoritmos\Talleres\Taller_2_SortAlgorithms\documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/bernal-david_javeriana_edu_co/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E57C8A-5F27-4439-BB67-5F5FC53CF924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8235"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BubbleSort" sheetId="1" r:id="rId1"/>
@@ -18,17 +19,26 @@
     <sheet name="BucketSort" sheetId="6" r:id="rId4"/>
     <sheet name="CountingSort" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="17">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -36,10 +46,31 @@
     <t>Tamaño Instancia</t>
   </si>
   <si>
+    <t>Tiempo (ns)</t>
+  </si>
+  <si>
     <t>BubbleSort</t>
   </si>
   <si>
-    <t>Tiempo (ns)</t>
+    <t>Instancia</t>
+  </si>
+  <si>
+    <t>Tiempo Promedio</t>
+  </si>
+  <si>
+    <t>Prediccion</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Tiempo Teorico</t>
+  </si>
+  <si>
+    <t>Tiempo Experiental</t>
+  </si>
+  <si>
+    <t>Error:</t>
   </si>
   <si>
     <t>MergeSort</t>
@@ -48,38 +79,23 @@
     <t>QuickSort</t>
   </si>
   <si>
-    <t>CountingSort</t>
+    <t>Tiempo Teorico (ns)</t>
+  </si>
+  <si>
+    <t>Tiempo Experiental (ns)</t>
   </si>
   <si>
     <t>BucketSort</t>
   </si>
   <si>
-    <t>Instancia</t>
-  </si>
-  <si>
-    <t>Tiempo Promedio</t>
-  </si>
-  <si>
-    <t>Tamaño</t>
-  </si>
-  <si>
-    <t>Error:</t>
-  </si>
-  <si>
-    <t>Tiempo Experiental</t>
-  </si>
-  <si>
-    <t>Tiempo Teorico</t>
-  </si>
-  <si>
-    <t>Prediccion</t>
+    <t>CountingSort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -104,28 +126,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -148,7 +176,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -166,7 +194,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,7 +218,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -196,7 +230,1452 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BubbleSort!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.5713473315835524E-2"/>
+                  <c:y val="-8.2820064158646831E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BubbleSort!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BubbleSort!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>417200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14283280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285904680</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9057-4C74-A83B-B8FF47649870}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="475584712"/>
+        <c:axId val="475586352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="475584712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Instancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49480942049873822"/>
+              <c:y val="0.88544245084118589"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475586352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475586352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475584712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MergeSort!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MergeSort!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MergeSort!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1816500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11677360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A84F-4979-B388-9734ECA8C3AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392923760"/>
+        <c:axId val="392924744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392923760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Instancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392924744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="392924744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo promedio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392923760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> promedio</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>QuickSort!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>QuickSort!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1086100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13787560</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F2F-414A-A81C-56F4B0C0EDC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="498579328"/>
+        <c:axId val="498578672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="498579328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Instancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498578672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="498578672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498579328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -284,7 +1763,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -396,6 +1874,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Instancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -458,6 +1991,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> promedio</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -496,6 +2089,466 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="332379592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>CountingSort!$B$19:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>CountingSort!$C$19:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45740</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2097300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1559-4AA7-8587-B6CB3DCEDF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225554688"/>
+        <c:axId val="225553704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225554688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Instancia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225553704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225553704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tíiempo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225554688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -584,6 +2637,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1100,7 +3313,2194 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6802D0D6-571C-4FFF-9DEC-A64BC6C0EED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1117,7 +5517,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806DB261-66F7-4FED-94CB-3ECA772531F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1136,51 +5583,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmo"/>
-    <tableColumn id="2" name="Tamaño Instancia"/>
-    <tableColumn id="3" name="Tiempo (ns)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Algoritmo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tamaño Instancia"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tiempo (ns)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla1346" displayName="Tabla1346" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabla1346" displayName="Tabla1346" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmo"/>
-    <tableColumn id="2" name="Tamaño Instancia"/>
-    <tableColumn id="3" name="Tiempo (ns)" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Algoritmo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Tamaño Instancia"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Tiempo (ns)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="B18:C22" totalsRowShown="0">
-  <autoFilter ref="B18:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabla6" displayName="Tabla6" ref="B18:C22" totalsRowShown="0">
+  <autoFilter ref="B18:C22" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Instancia" dataDxfId="14"/>
-    <tableColumn id="2" name="Tiempo Promedio" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Instancia" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Tiempo Promedio" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="E19:I20" totalsRowShown="0">
-  <autoFilter ref="E19:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabla8" displayName="Tabla8" ref="E19:I20" totalsRowShown="0">
+  <autoFilter ref="E19:I20" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prediccion"/>
-    <tableColumn id="2" name="Tamaño"/>
-    <tableColumn id="3" name="Tiempo Teorico">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Prediccion"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Tamaño"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Tiempo Teorico">
       <calculatedColumnFormula>(2819.7*F20)+(3000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Tiempo Experiental"/>
-    <tableColumn id="5" name="Error:" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Tiempo Experiental"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Error:" dataDxfId="3">
       <calculatedColumnFormula>ABS((G20-H20)/(H20))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1189,28 +5636,28 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla134" displayName="Tabla134" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tabla134" displayName="Tabla134" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmo"/>
-    <tableColumn id="2" name="Tamaño Instancia"/>
-    <tableColumn id="3" name="Tiempo (ns)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Algoritmo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Tamaño Instancia"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Tiempo (ns)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla814" displayName="Tabla814" ref="E19:I20" totalsRowShown="0">
-  <autoFilter ref="E19:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tabla814" displayName="Tabla814" ref="E19:I20" totalsRowShown="0">
+  <autoFilter ref="E19:I20" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prediccion"/>
-    <tableColumn id="2" name="Tamaño"/>
-    <tableColumn id="3" name="Tiempo Teorico">
-      <calculatedColumnFormula>(2819.7*F20)+(3000000)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Prediccion"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Tamaño"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Tiempo Teorico">
+      <calculatedColumnFormula>208.23*(Tabla814[[#This Row],[Tamaño]])+15806</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Tiempo Experiental"/>
-    <tableColumn id="5" name="Error:" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Tiempo Experiental"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Error:" dataDxfId="2">
       <calculatedColumnFormula>ABS((G20-H20)/(H20))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1219,36 +5666,38 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla615" displayName="Tabla615" ref="B18:C22" totalsRowShown="0">
-  <autoFilter ref="B18:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tabla615" displayName="Tabla615" ref="B18:C22" totalsRowShown="0">
+  <autoFilter ref="B18:C22" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Instancia" dataDxfId="3"/>
-    <tableColumn id="2" name="Tiempo Promedio" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Instancia" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Tiempo Promedio" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabla610" displayName="Tabla610" ref="B18:C22" totalsRowShown="0">
-  <autoFilter ref="B18:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla610" displayName="Tabla610" ref="B18:C22" totalsRowShown="0">
+  <autoFilter ref="B18:C22" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Instancia" dataDxfId="11"/>
-    <tableColumn id="2" name="Tiempo Promedio" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Instancia" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tiempo Promedio" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabla813" displayName="Tabla813" ref="E19:I20" totalsRowShown="0">
-  <autoFilter ref="E19:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla813" displayName="Tabla813" ref="E19:I20" totalsRowShown="0">
+  <autoFilter ref="E19:I20" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prediccion"/>
-    <tableColumn id="2" name="Tamaño"/>
-    <tableColumn id="3" name="Tiempo Teorico"/>
-    <tableColumn id="4" name="Tiempo Experiental"/>
-    <tableColumn id="5" name="Error:" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Prediccion"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tamaño"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Tiempo Teorico">
+      <calculatedColumnFormula>(29045*Tabla813[Tamaño])-(5000000)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tiempo Experiental"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Error:" dataDxfId="13">
       <calculatedColumnFormula>ABS((G20-H20)/(H20))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1257,37 +5706,39 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla13" displayName="Tabla13" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabla13" displayName="Tabla13" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmo"/>
-    <tableColumn id="2" name="Tamaño Instancia"/>
-    <tableColumn id="3" name="Tiempo (ns)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Algoritmo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Tamaño Instancia"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Tiempo (ns)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tabla61011" displayName="Tabla61011" ref="B18:C22" totalsRowShown="0">
-  <autoFilter ref="B18:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabla61011" displayName="Tabla61011" ref="B18:C22" totalsRowShown="0">
+  <autoFilter ref="B18:C22" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Instancia" dataDxfId="9"/>
-    <tableColumn id="2" name="Tiempo Promedio" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Instancia" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tiempo Promedio" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla81316" displayName="Tabla81316" ref="E19:I20" totalsRowShown="0">
-  <autoFilter ref="E19:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabla81316" displayName="Tabla81316" ref="E19:I20" totalsRowShown="0">
+  <autoFilter ref="E19:I20" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prediccion"/>
-    <tableColumn id="2" name="Tamaño"/>
-    <tableColumn id="3" name="Tiempo Teorico"/>
-    <tableColumn id="4" name="Tiempo Experiental"/>
-    <tableColumn id="5" name="Error:" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Prediccion"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Tamaño"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Tiempo Teorico">
+      <calculatedColumnFormula>(1147.1*Tabla81316[Tamaño])+247445</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tiempo Experiental"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Error:" dataDxfId="10">
       <calculatedColumnFormula>ABS((G20-H20)/(H20))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1296,37 +5747,39 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla1345" displayName="Tabla1345" ref="A1:C16" totalsRowShown="0">
-  <autoFilter ref="A1:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabla1345" displayName="Tabla1345" ref="A1:C16" totalsRowShown="0">
+  <autoFilter ref="A1:C16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Algoritmo"/>
-    <tableColumn id="2" name="Tamaño Instancia"/>
-    <tableColumn id="3" name="Tiempo (ns)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Algoritmo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Tamaño Instancia"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Tiempo (ns)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tabla6101112" displayName="Tabla6101112" ref="B18:C22" totalsRowShown="0">
-  <autoFilter ref="B18:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabla6101112" displayName="Tabla6101112" ref="B18:C22" totalsRowShown="0">
+  <autoFilter ref="B18:C22" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Instancia" dataDxfId="7"/>
-    <tableColumn id="2" name="Tiempo Promedio" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Instancia" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Tiempo Promedio" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla81317" displayName="Tabla81317" ref="E19:I20" totalsRowShown="0">
-  <autoFilter ref="E19:I20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabla81317" displayName="Tabla81317" ref="E19:I20" totalsRowShown="0">
+  <autoFilter ref="E19:I20" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Prediccion"/>
-    <tableColumn id="2" name="Tamaño"/>
-    <tableColumn id="3" name="Tiempo Teorico"/>
-    <tableColumn id="4" name="Tiempo Experiental"/>
-    <tableColumn id="5" name="Error:" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Prediccion"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tamaño"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Tiempo Teorico (ns)">
+      <calculatedColumnFormula>1388.1*(Tabla81317[[#This Row],[Tamaño]])-111794</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tiempo Experiental (ns)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Error:" dataDxfId="7">
       <calculatedColumnFormula>ABS((G20-H20)/(H20))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1596,14 +6049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:I20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -1615,7 +6068,7 @@
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,12 +6076,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1637,9 +6090,9 @@
         <v>412000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1648,9 +6101,9 @@
         <v>421700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1659,9 +6112,9 @@
         <v>409400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1670,9 +6123,9 @@
         <v>453000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1681,9 +6134,9 @@
         <v>389900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -1692,9 +6145,9 @@
         <v>15079200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1703,9 +6156,9 @@
         <v>14576100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -1714,9 +6167,9 @@
         <v>13002900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -1725,9 +6178,9 @@
         <v>14186700</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -1736,9 +6189,9 @@
         <v>14571500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -1747,9 +6200,9 @@
         <v>280320100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -1758,9 +6211,9 @@
         <v>288847100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>10000</v>
@@ -1769,9 +6222,9 @@
         <v>287014100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>10000</v>
@@ -1780,9 +6233,9 @@
         <v>285854300</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -1791,15 +6244,15 @@
         <v>287487800</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -1807,22 +6260,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -1833,15 +6286,19 @@
       <c r="F20">
         <v>100000</v>
       </c>
+      <c r="G20">
+        <f>(29045*Tabla813[Tamaño])-(5000000)</f>
+        <v>2899500000</v>
+      </c>
       <c r="H20">
         <v>28828010800</v>
       </c>
       <c r="I20" s="3">
         <f>ABS((G20-H20)/(H20))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.89942073977577397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1">
         <v>1000</v>
       </c>
@@ -1850,7 +6307,7 @@
         <v>14283280</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="1">
         <v>10000</v>
       </c>
@@ -1861,30 +6318,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1892,12 +6350,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1906,9 +6364,9 @@
         <v>224000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1917,9 +6375,9 @@
         <v>260800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1928,9 +6386,9 @@
         <v>221700</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -1939,9 +6397,9 @@
         <v>220900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -1950,9 +6408,9 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -1961,9 +6419,9 @@
         <v>1608100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -1972,9 +6430,9 @@
         <v>1848400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -1983,9 +6441,9 @@
         <v>1855400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -1994,9 +6452,9 @@
         <v>1888100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -2005,9 +6463,9 @@
         <v>1882500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -2016,9 +6474,9 @@
         <v>11555600</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -2027,9 +6485,9 @@
         <v>12325500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>10000</v>
@@ -2038,9 +6496,9 @@
         <v>12135200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>10000</v>
@@ -2049,9 +6507,9 @@
         <v>11077600</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -2060,15 +6518,15 @@
         <v>11292900</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2076,22 +6534,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -2102,15 +6560,19 @@
       <c r="F20">
         <v>100000</v>
       </c>
+      <c r="G20">
+        <f>(1147.1*Tabla81316[Tamaño])+247445</f>
+        <v>114957444.99999999</v>
+      </c>
       <c r="H20">
-        <v>28828010800</v>
+        <v>83639200</v>
       </c>
       <c r="I20" s="3">
         <f>ABS((G20-H20)/(H20))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.37444457861863795</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1">
         <v>1000</v>
       </c>
@@ -2119,7 +6581,7 @@
         <v>1816500</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="1">
         <v>10000</v>
       </c>
@@ -2130,30 +6592,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:I20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2161,12 +6626,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2175,9 +6640,9 @@
         <v>87900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2186,9 +6651,9 @@
         <v>91600</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2197,9 +6662,9 @@
         <v>82900</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2208,9 +6673,9 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2219,9 +6684,9 @@
         <v>84600</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2230,9 +6695,9 @@
         <v>1050600</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -2241,9 +6706,9 @@
         <v>1063400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -2252,9 +6717,9 @@
         <v>1059300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -2263,9 +6728,9 @@
         <v>1120500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -2274,9 +6739,9 @@
         <v>1136700</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -2285,9 +6750,9 @@
         <v>14609400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -2296,9 +6761,9 @@
         <v>12899300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>10000</v>
@@ -2307,9 +6772,9 @@
         <v>13150200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>10000</v>
@@ -2318,9 +6783,9 @@
         <v>13888400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -2329,15 +6794,15 @@
         <v>14390500</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2345,22 +6810,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -2371,15 +6836,19 @@
       <c r="F20">
         <v>100000</v>
       </c>
+      <c r="G20">
+        <f>1388.1*(Tabla81317[[#This Row],[Tamaño]])-111794</f>
+        <v>138698206</v>
+      </c>
       <c r="H20">
-        <v>28828010800</v>
+        <v>126360000</v>
       </c>
       <c r="I20" s="3">
         <f>ABS((G20-H20)/(H20))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9.7643289015511239E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="1">
         <v>1000</v>
       </c>
@@ -2388,7 +6857,7 @@
         <v>1086100</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="1">
         <v>10000</v>
       </c>
@@ -2397,25 +6866,29 @@
         <v>13787560</v>
       </c>
     </row>
+    <row r="24" spans="2:10">
+      <c r="J24" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -2425,7 +6898,7 @@
     <col min="8" max="8" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2433,12 +6906,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2447,9 +6920,9 @@
         <v>2980700</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2458,9 +6931,9 @@
         <v>3161800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2469,9 +6942,9 @@
         <v>3581000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -2480,9 +6953,9 @@
         <v>3008200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -2491,9 +6964,9 @@
         <v>2984600</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2502,9 +6975,9 @@
         <v>10218700</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1000</v>
@@ -2513,9 +6986,9 @@
         <v>9996100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -2524,9 +6997,9 @@
         <v>11289100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1000</v>
@@ -2535,9 +7008,9 @@
         <v>10528800</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>1000</v>
@@ -2546,9 +7019,9 @@
         <v>9357000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>10000</v>
@@ -2557,9 +7030,9 @@
         <v>30842300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>10000</v>
@@ -2568,9 +7041,9 @@
         <v>31320700</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>10000</v>
@@ -2579,9 +7052,9 @@
         <v>30643600</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>10000</v>
@@ -2590,9 +7063,9 @@
         <v>31461000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>10000</v>
@@ -2601,15 +7074,15 @@
         <v>31176600</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2617,22 +7090,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1">
         <v>100</v>
       </c>
@@ -2655,7 +7128,7 @@
         <v>0.41342177821226472</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="1">
         <v>1000</v>
       </c>
@@ -2664,7 +7137,7 @@
         <v>10277940</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="1">
         <v>10000</v>
       </c>
@@ -2686,21 +7159,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2708,138 +7183,183 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>52700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>48300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>237000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>241000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>290800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>192700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>196400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>2570700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>10000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1874500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2061600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>10000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2058900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1920800</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>0</v>
       </c>
@@ -2847,68 +7367,69 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1">
         <v>100</v>
       </c>
-      <c r="C20" s="2" t="e">
+      <c r="C20" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>#DIV/0!</v>
+        <v>45740</v>
       </c>
       <c r="F20">
         <v>100000</v>
       </c>
       <c r="G20">
-        <f>(2819.7*F20)+(3000000)</f>
-        <v>284970000</v>
+        <f>208.23*(Tabla814[[#This Row],[Tamaño]])+15806</f>
+        <v>20838806</v>
       </c>
       <c r="H20">
-        <v>201617100</v>
+        <v>15520600</v>
       </c>
       <c r="I20" s="3">
         <f>ABS((G20-H20)/(H20))</f>
-        <v>0.41342177821226472</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.34265466541241962</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1">
         <v>1000</v>
       </c>
-      <c r="C21" s="2" t="e">
+      <c r="C21" s="2">
         <f>AVERAGE(C7:C11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231580</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="1">
         <v>10000</v>
       </c>
-      <c r="C22" s="2" t="e">
+      <c r="C22" s="2">
         <f>AVERAGE(C12:C16)</f>
-        <v>#DIV/0!</v>
+        <v>2097300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>